--- a/Documentation/Bestellijst.xlsx
+++ b/Documentation/Bestellijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Morphex_Robot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508F5CF-8417-4B68-9832-5DBD8685BFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564DC38-CB06-402E-A8C0-6A101A6888B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6A4DB416-24D7-44E0-A69B-E5FA3311012E}"/>
   </bookViews>
@@ -184,7 +184,16 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -214,26 +223,17 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -262,15 +262,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F136C6D3-24B6-4C50-8C9E-C913CC8AB28F}" name="Tabel1" displayName="Tabel1" ref="A1:G36" totalsRowCount="1" headerRowDxfId="13">
   <autoFilter ref="A1:G35" xr:uid="{B2D9AB8D-C991-4C45-A9C9-D44B23D9D83F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D53B56E-0CC6-457F-999E-2ECED5A0C9B0}" name="Onderdeel" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8A307700-72EC-41CE-BAE0-2ECD7599BD44}" name="Leverancier" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{693DD866-68DA-48E4-AC12-959DAD81B8C1}" name="URL" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C1F88779-7DF1-48EC-A3A6-81E499B68742}" name="Prijs" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B8612E2E-6F9A-4641-9997-5E5EDACF60C8}" name="Aantal" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{FB14A96F-703D-4BB6-BD03-E669DF15E2D4}" name="Totaal" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{3D53B56E-0CC6-457F-999E-2ECED5A0C9B0}" name="Onderdeel" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8A307700-72EC-41CE-BAE0-2ECD7599BD44}" name="Leverancier" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{693DD866-68DA-48E4-AC12-959DAD81B8C1}" name="URL" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C1F88779-7DF1-48EC-A3A6-81E499B68742}" name="Prijs" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B8612E2E-6F9A-4641-9997-5E5EDACF60C8}" name="Aantal" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{FB14A96F-703D-4BB6-BD03-E669DF15E2D4}" name="Totaal" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{990B3106-FF38-4B6E-AD8D-85D42F7F4417}" name="Besteld" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{990B3106-FF38-4B6E-AD8D-85D42F7F4417}" name="Besteld" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1141,21 +1141,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013D572DAEE666F4A8235095F0DBB5D12" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97694234d456a7ab20e4de1729d97312">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc8539b7cf89b7b8f66bd9e58a03023" ns2:_="">
     <xsd:import namespace="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b"/>
@@ -1287,10 +1272,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485F2665-C77D-4B12-A795-2E13A4B76BA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E220321F-8D95-4ADB-8F8A-22E376662B49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1312,20 +1323,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E220321F-8D95-4ADB-8F8A-22E376662B49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485F2665-C77D-4B12-A795-2E13A4B76BA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Bestellijst.xlsx
+++ b/Documentation/Bestellijst.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Morphex_Robot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Rollster\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564DC38-CB06-402E-A8C0-6A101A6888B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BE373B-FA24-4796-91BF-5CF91354EC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6A4DB416-24D7-44E0-A69B-E5FA3311012E}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Aantal</t>
   </si>
   <si>
-    <t>Onderdeel</t>
-  </si>
-  <si>
     <t>Prijs</t>
   </si>
   <si>
@@ -108,6 +105,90 @@
   </si>
   <si>
     <t>https://www.tinytronics.nl/shop/nl/teensy/main-boards/teensy-lc</t>
+  </si>
+  <si>
+    <t>Model Number</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>TP4056 Micro-USB Li-ion lader 1A</t>
+  </si>
+  <si>
+    <t>Diode Set - 100 stuks</t>
+  </si>
+  <si>
+    <t>NDP6020P Power P-MOSFET -20V -24A</t>
+  </si>
+  <si>
+    <t>Step-up Boost Converter MT3608 2A</t>
+  </si>
+  <si>
+    <t>Nextion HMI Display 3.5</t>
+  </si>
+  <si>
+    <t>Li-Po Accu 3.7V 2600mAh</t>
+  </si>
+  <si>
+    <t>Teensy LC</t>
+  </si>
+  <si>
+    <t>Teensy 4.0</t>
+  </si>
+  <si>
+    <t>PS2 Joystick</t>
+  </si>
+  <si>
+    <t>PS2JOYST</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/arduino/accessoires/ps2-joystick</t>
+  </si>
+  <si>
+    <t>Groene Drukknop 12mm - Reset - PBS-33B</t>
+  </si>
+  <si>
+    <t>PBS-33B-GREEN</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/componenten/schakelaars/groene-drukknop-12mm-reset-pbs-33b</t>
+  </si>
+  <si>
+    <t>Blauwe Drukknop 12mm - Reset - PBS-33B</t>
+  </si>
+  <si>
+    <t>PBS-33B-BLUE</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/componenten/schakelaars/blauwe-drukknop-12mm-reset-pbs-33b</t>
+  </si>
+  <si>
+    <t>Rode Drukknop 12mm - Reset - PBS-33B</t>
+  </si>
+  <si>
+    <t>PBS-33B-RED</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/componenten/schakelaars/rode-drukknop-12mm-reset-pbs-33b</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/componenten/schakelaars/gele-drukknop-12mm-reset-pbs-33b</t>
+  </si>
+  <si>
+    <t>Gele Drukknop 12mm - Reset - PBS-33B</t>
+  </si>
+  <si>
+    <t>PBS-33B-YELLOW</t>
+  </si>
+  <si>
+    <t>Standaard Inbouw Wipschakelaar - Klein</t>
+  </si>
+  <si>
+    <t>SWITCHS</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/componenten/schakelaars/standaard-inbouw-wipschakelaar-klein</t>
   </si>
 </sst>
 </file>
@@ -156,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,23 +258,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -223,14 +296,29 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -259,18 +347,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F136C6D3-24B6-4C50-8C9E-C913CC8AB28F}" name="Tabel1" displayName="Tabel1" ref="A1:G36" totalsRowCount="1" headerRowDxfId="13">
-  <autoFilter ref="A1:G35" xr:uid="{B2D9AB8D-C991-4C45-A9C9-D44B23D9D83F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D53B56E-0CC6-457F-999E-2ECED5A0C9B0}" name="Onderdeel" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8A307700-72EC-41CE-BAE0-2ECD7599BD44}" name="Leverancier" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{693DD866-68DA-48E4-AC12-959DAD81B8C1}" name="URL" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C1F88779-7DF1-48EC-A3A6-81E499B68742}" name="Prijs" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B8612E2E-6F9A-4641-9997-5E5EDACF60C8}" name="Aantal" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{FB14A96F-703D-4BB6-BD03-E669DF15E2D4}" name="Totaal" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F136C6D3-24B6-4C50-8C9E-C913CC8AB28F}" name="Tabel1" displayName="Tabel1" ref="A1:H36" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="A1:H35" xr:uid="{B2D9AB8D-C991-4C45-A9C9-D44B23D9D83F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3D53B56E-0CC6-457F-999E-2ECED5A0C9B0}" name="Item" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3E03A44F-BFB5-44B3-9AC3-AAC148FBBBE8}" name="Model Number" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A307700-72EC-41CE-BAE0-2ECD7599BD44}" name="Leverancier" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{693DD866-68DA-48E4-AC12-959DAD81B8C1}" name="URL" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C1F88779-7DF1-48EC-A3A6-81E499B68742}" name="Prijs" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B8612E2E-6F9A-4641-9997-5E5EDACF60C8}" name="Aantal" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FB14A96F-703D-4BB6-BD03-E669DF15E2D4}" name="Totaal" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{990B3106-FF38-4B6E-AD8D-85D42F7F4417}" name="Besteld" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{990B3106-FF38-4B6E-AD8D-85D42F7F4417}" name="Besteld" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,558 +665,697 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="1" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
         <v>20.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
         <v>20.5</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>34</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="5">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>15</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>13</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+      <c r="G25" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>5</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>5</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="G26" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
         <v>1.5</v>
       </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>7.5</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="H26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+      <c r="G27" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>34</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>15</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="5">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5">
-        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="5">
+        <f>SUM(Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs]])</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="5">
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="5">
         <f>SUBTOTAL(109,Tabel1[Totaal])</f>
-        <v>99</v>
+        <v>110.9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{50ACACEC-69B4-494E-A711-DB25E9A21005}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{462B68B3-3734-4A33-B82D-8F5CD6D421DD}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{FA133030-9981-4727-959B-DA52A277C5C9}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{6CD673C9-4E79-45FC-9A60-04B4062EB630}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;20Bestellijst Morphex Robot</oddHeader>
     <oddFooter xml:space="preserve">&amp;L&amp;D
@@ -1135,12 +1363,27 @@
 </oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013D572DAEE666F4A8235095F0DBB5D12" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97694234d456a7ab20e4de1729d97312">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc8539b7cf89b7b8f66bd9e58a03023" ns2:_="">
     <xsd:import namespace="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b"/>
@@ -1272,36 +1515,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E220321F-8D95-4ADB-8F8A-22E376662B49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485F2665-C77D-4B12-A795-2E13A4B76BA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1323,9 +1540,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485F2665-C77D-4B12-A795-2E13A4B76BA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E220321F-8D95-4ADB-8F8A-22E376662B49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="2cc6b2cd-58e2-4d50-a7c7-c82799cc163b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>